--- a/MeeToo/Community+Lexrank/community_summaries_output.xlsx
+++ b/MeeToo/Community+Lexrank/community_summaries_output.xlsx
@@ -7,12 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Final_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Community_0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Final_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,182 +440,287 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Community 2 Summary</t>
+          <t>Community 1 Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>It is that funny, is it?</t>
+          <t>I just pulled this #metoo article out of my recent blog archives because I thought it was worth #sharing again.\u00a0 Sexual Allegations in a World of Denial and Acceptance \u201cResist the urge to make the accuser an additional target of #abuse\u201d\u00a0 Read, and see if you agree, and don't\u2026</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Women and so many men finally found the strength to share the stories of sexual misconduct and assault and some men need to joke about it.</t>
+          <t>#MeToo is meant to empower girls and boys who face harassment. Instead of shaming victims, let us shame the oppressor and hold him accountable before it reaches such a fatal state! #JusticeForRajalakshmi  https://t.co/d3iANLQ5iG</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#TimesUp @TIMESUPNOW https://t.co/nk6JOPDmlo @HBO it's also not ok to abuse, threaten &amp;amp; attempt to quell those speaking out against this abhorrent behaviour, which sees your actors promoting sexual misconduct, and the humanisation of traffickers and predatory behaviour under the guise of art and media #metoo #timesup I heard @timesofindia is calling all women to come forward &amp;amp; share their #MeToo stories.</t>
+          <t>@drjordansavage @sarahditum I dunno if you've heard about this whole #metoo thing, turns out constant sexual harassment and violence against women by penis-having people is kind of a problem...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I just pulled this #metoo article out of my recent blog archives because I thought it was worth #sharing again.\u00a0 Sexual Allegations in a World of Denial and Acceptance \u201cResist the urge to make the accuser an additional target of #abuse\u201d\u00a0 Read, and see if you agree, and don't\u2026 Everyone pays a price when we allow sexual harassment to persist in the workplace.</t>
+          <t>#metoo #Metoo  Women are constantly unheard until too late. The Police failed, irresponsible and allowed another woman\u2019s untimely death . @TheView @AC360 @GMA #VoteForOurLives #HateCrimes https://t.co/5nTUmq9qT0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Please don't dilute the movement.</t>
+          <t>#WriteYourResistance I\u2019ll fully admit that the #MeToo movement is one of the reasons I\u2019m writing my Medusa project. Queer people experience a higher rate of sexual assault that often times goes unreported. https://t.co/GYwOE4ugcR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Now, I feel it\u2019s too important not to share.</t>
+          <t>@annavetticad @TheQuint Salman\u2019s is an issue of domestic violence. Not to be conflated with #MeToo. Diluting the def of #MeToo will dampen its impact. It\u2019s def should be restricted to people in power sexually exploiting the weak. Not domestic violence or failed relationships</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#metoo If a woman shares a #metoo without evidence, it's taken to be true coz it's a women's testimony, a man coming out with #HeToo story, people would be doubtful,  &amp;amp; question the evidences, the intent &amp;amp; will never except the man as victim.</t>
+          <t>@tobiasmenzies @caitrionambalfe The silence is deafening. No #MeToo for these girls. BBC News - Huddersfield grooming: Twenty guilty of campaign of rape and abuse https://t.co/6LVHTeDLEG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Please don\u2019t believe this attention seeking bully of a woman, Faizan has been there for me and countless others even before there was a #metoo movement.</t>
+          <t>Important story via @nancyflory3  \u201c#MeToo has taken and changed our discourse and thoughts about sexual violence. We hope #SurvivorSpeaks does the same thing.\u201d - Ruth Glenn  This month, @NCADV wants to get people to acknowledge... the stories of survivors of domestic violence. https://t.co/QklXl4a25o</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>we will not be diminished  https://t.co/SBtvYZ2mQ5 @ANI I am sure from today onwards, no other women would dare to come out with #MeToo story.</t>
+          <t>@mkatju At last a former judge has commented reality of #MeTooIndia . Those who level #MeToo allegations have been in casting couch to reach a position in life. Prostitution is a business but these #MeToo gang are worse than that. #FalseRapeCases #498a #SpeakUpMan</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://t.co/QklXl4a25o Still, better than the sports masseur who said I lit him up like a Christmas tree, stroked the side of my breast, put his penis in my upturned palm &amp;amp; said he\u2019d love to put cameras all over my house so he could watch me all day ...I just can\u2019t even...  #metoo #sexualharassment Sexual Harassment and Non-Disclosure Agreements \u2013 the British #Metoo scandal, please read our latest #blog by Lauren Bhole from @JMWemployment team #emplaw #employmentlaw #NDA  https://t.co/ZIrQi8dh8n \u201cAs I spoke the names of the men who harmed me and recounted every detail of the assaults to journalists, the protective scar tissue over my heart began ripping open.</t>
+          <t>@AstorGoodwin How dare Dump, or any of his minions, try to use #MeToo to stop this investigation. It\u2019s disgusting!</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>To equate tht with #MeToo\u2060 \u2060not only shows that you are a bitter old woman who has no respect for Hinduism, our culture, our tradition, the choice of women to do what they want, or the #MeToo\u2060 mvmnt, but also that writing soft porn has incapacitated ur mental faculties https://t.co/5RUdz9I1Jr In the current climate of #MeToo if someone did that to you at your place of work would you just let it go?</t>
+          <t>How #metoo can be misused  How girls are misusing rules  Just blame and game over no enquiry no detail She is victim he is convict https://t.co/8co7oIHkof</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Or should it be considered sexual assault?</t>
+          <t>#METOO. MEN WHO SEXUALLY HARASS WOMEN DON\u2019T SEE IT AS SEXUAL HARASSMENT #WOMENTOO DOES THE SAME.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>If anything has ever happened to you, even if someone else has told you it \u201cwasn\u2019t that bad\u201d, \u201cyou\u2019ll be fine\u201d, or belittled your trauma, I am here.</t>
+          <t>More than how abuse &amp;amp; gaslighting has been intruded in this 'relationship'.. I clap to this woman for pointng out how some so called elite feminist women wl scream out for #MeToo &amp;amp; in no blnk of an eye, conveniently support the abusers if they knew them!   https://t.co/v8qEAGcO8P</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BBC News - Huddersfield grooming: Twenty guilty of campaign of rape and abuse https://t.co/6LVHTeDLEG @rosemcgowan You are the founder of #metoo and as such I feel that you should stand for anyone being abused.</t>
+          <t>A student of the National Institute of Nutrition, Hyderabad, complained about sexual harassment and now the professor is back without any consequence  A report earlier this year.   https://t.co/KDSJwpIH7B  I'll follow it up with the survivor's statement soon #MeToo #MeTooIndia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>She should be accountable and is not.</t>
+          <t>Read @adt_txt's conversations with those who chose to stay anonymous in their #MeToo stories, yet still arent free from the emotional expense of outing an abuser.  Also, follow her because she's literally such a great journalist \ud83d\udd25 https://t.co/0qummKuKKW</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>More power to you Poulomi #MeToo #TimesUp https://t.co/5hOhvGX9gf.</t>
+          <t>@SmartKehan @MIKENY78 @MailOnline #metoo ignores evidence and that\u2019s not right because a Man is Human and he has the rights as Woman but they doesn\u2019t understand that . #Feministsaremonster</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>It was was one of your tweets shared but @ghaatidancer that pushed me through my silence and made me share my story.</t>
+          <t>@annavetticad These woke men, of course. Rely on them to tell us where #MeToo should be restricted and where not. They put domestic violence and failed relationships in the same line. And they are soooo woke, boi.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>An extra 1,100 recorded deaths from an illegal rideshare company is not justified and immediate action must be taken NOW @QLDLabor #DeleteUber #qldpol #TimesUp #MeToo https://t.co/EXP5hawWsn A horrific under-sentencing for a violent and abusive man in our neighbourhood who has ruined lives.</t>
+          <t>@HBO well the emissary you sent, who swears blind that she doesn't know you, has just hurled insults at me.  Apparently I'm 'unkind and aggressive' and should say things about sexual predators and their supporters in nicer way.  Thank you for your succinct answer #metoo #timesup</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>While I understand that she had the rights to not go, given the certain hour when she was being called, how can she post on social media with the #MeToo hashtag?</t>
+          <t>\u201cAs I spoke the names of the men who harmed me and recounted every detail of the assaults to journalists, the protective scar tissue over my heart began ripping open. The trauma of my past is now splayed open for all to see. Via \u2066@BitchMedia\u2069 #MeToo  https://t.co/M9ugxhfLZR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Now I\u2019m not.</t>
+          <t>Sexual Harassment and Non-Disclosure Agreements \u2013 the British #Metoo scandal, please read our latest #blog by Lauren Bhole from @JMWemployment team #emplaw #employmentlaw #NDA  https://t.co/ZIrQi8dh8n</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>We would to hear/read your stories.</t>
+          <t>Feminist view: An innocent Indian girl is being sexually assaulted by the police and the security guard who are supposed to protect her.  My view: an unsocial creature is creating social disorder by removing her clothes and playing victim card. #MeToo4publicity #MeToo https://t.co/OdPJg7ixpf</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#MeToo.</t>
+          <t>Don't get fooled by #MeToo gang . #SpeakUpMan to Stop  #MeToo4Publicity  https://t.co/7OFBeCFJC0 Don't get fooled by #MeToo gang . #SpeakUpMan to Stop abuse of Men and Demand Gender Neutral law. If Women do not do such crime , why they afraid for Gender neutral Law?</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I was lucky, his ex said he was violent #metoo @GabbbarSingh Now she will play the game of #MeToo with you or claimed to be harassment \ud83d\ude44 Rotherham sex abuse victim: Police did not take my case seriously  The victim says she felt that \"nothing was done\" after she reported being sexually abused to South Yorkshire Police.</t>
+          <t>I learned from #MeToo that if I cry rape on at least 7 different occassions against at least 7 different men, none of which were prosecuted, or charged for rape, I can get attention from victim advocates like Family Tree, org. I love me some attention. #WhenMimesSpeak #Satire?</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>That she chose to identify her abuser publicly is!</t>
+          <t>@HBO it's also not ok to abuse, threaten &amp;amp; attempt to quell those speaking out against this abhorrent behaviour, which sees your actors promoting sexual misconduct, and the humanisation of traffickers and predatory behaviour under the guise of art and media #metoo #timesup</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>He is a sexual predator and has sexually assaulted me multiple times.</t>
+          <t>First hand account of a survivor from @TeachForIndia. @heauxbaton publicly talks about her internship at TFI and the sexual harassment and abuse she faced. More power to you Poulomi #MeToo #TimesUp https://t.co/5hOhvGX9gf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nearly 25 years have passed since a  woman who was raped in Prospect Park was smeared as a liar. Now, after the rise of #meToo , she's getting a full, unequivocal apology from New York City's police commissioner. https://t.co/1wn3gSdzZ8</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>If a woman shares a #metoo without evidence, it's taken to be true coz it's a women's testimony, a man coming out with #HeToo story, people would be doubtful,  &amp;amp; question the evidences, the intent &amp;amp; will never except the man as victim. #misandry must be understood. #SpeakUpMan https://t.co/FMJoz2gH3Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Everyone pays a price when we allow sexual harassment to persist in the workplace. Workplace sexual harassment is too costly to ignore.   #MeToo https://t.co/HofwUcVaNE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>In the current climate of #MeToo if someone did that to you at your place of work would you just let it go? Or should it be considered sexual assault? https://t.co/nl3NcrTZjU</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>The dangers of #MeToo https://t.co/yDpPMjjF9s.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>#Tekashi69's team are now taking down all comments pertaining to his sex offender status which saw him make child pornography and molesting a child whilst she was groomed to give oral sex.  Here's my comment on #Instagram. #metoo #timesup #blacklivesmatter https://t.co/I2IWAxHqZG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>@rosemcgowan You are the founder of #metoo and as such I feel that you should stand for anyone being abused. Johnny Depp made the mistake of marrying Amber Heard but she\u2019s trashed his name when she\u2019s really the abuser.  She should be accountable and is not.  Here are the court https://t.co/S6CSFEFNx7</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Is it unmerciful to come forward as a victim of sexual abuse? In this episode, I talk about mercy and the #MeToo Movement on #BetweenTheLines. #UpsideDownLiving https://t.co/eoLQ3LVPp6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>@MeghaSh77484473 @MumbaiPolice @TrishaBShetty 1.females shuld not physical abuse, until it is required for defence.   #MeghaSharma #MeToo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>#Metoo shudn't be abt sympathy for others stories alone; it shud enable moments for our own self reflection. Everytime we kept quiet when we saw someone else being bullied n harassed becoz of our own selfish interests. #Metoo shud truly be an account of our own complicity too!</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>#DearWorld: It\u2019s time to go beyond denouncing individual abusers. We also need to reform the institutions and systems that shelter them from consequences while punishing women who speak out. Let\u2019s get moving. #metoo https://t.co/yxWCxRNWFX https://t.co/cudVfyhupJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>\u2018Mechanisms need to exist for freelance journalists to be able to report sexual abuse and misconduct. Women should feel safe to report it. It\u2019s doable and can be done, but I don\u2019t see that happening.\u2019 - @kristenchick @frontlineclub #MeToo #Photojournalism</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>@SotonPres when will Southampton press charges for indency and sexual misconduct towards a sexist, racist misandrist sending naked, suggestive photos to her students. If it was a man sending these pics? #DoubleStandard #metoo #sexualmisconduct #emilydawes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>If alleged sexual harasser quits, is that enough? No, #HR should figure out why problems arose in first place https://t.co/VOseS7cIun #MeToo via @YoungConaway @HRDailyAdvisor https://t.co/OG63IAhp6Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>@Chinmayi  Can you take back the shame and humiliation this guy faced bcoz of what you have done to him??? He should seriously file defamation case against you!!! #MeTooControversy  #metoo https://t.co/XCBCgsbEGP</t>
         </is>
       </c>
     </row>
@@ -631,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,182 +746,287 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Community 1 Summary</t>
+          <t>Community 2 Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Parents now must raise boys to be civilized and girls who will not suffer abuse in silence.</t>
+          <t>The #MeToo movement must not die an early death just after creating a few sparks here and there. It must spread like wildfire across our patriarchal society and institutions.  It ought to reflect the multidimensional oppression and discrimination women face  everywhere. https://t.co/L3eKd8HLdl</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fuck you man, you really let all of us down.</t>
+          <t>#MeToo Will Not Survive Unless We Recognize Toxic Femininity  Women are not monolithic. Pretending they are holds everyone back.   https://t.co/lI0LRZQKtk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://t.co/dNM27SsTE9.</t>
+          <t>My dear friend @baratunde wrote an incredible piece about the #MeToo movement and the role of men. \"\u201cMale privilege\u201d isn\u2019t just privilege. It\u2019s a trap. Patriarchy is a trap. For everyone. We should want everyone to be free.\" https://t.co/dt6xSiuM7q</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thanks @je_ne_tweet_pas for all the back up as always https://t.co/ZCS0lokx04 https://t.co/qot0eqdHd3 I was interviewed by @LeahFessler of @qz on what it means to be a man in the age of #metoo and why I don't identify as a #feminist.</t>
+          <t>#metoo movt. is a great opportunity to think of what goes around us. The spotlight should be on everyday racism n sexism ard us in which even women are complicit. Careerist women who have no regard for decency n integrity, And both men n women who share the sense of entitlement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I really like their perspective on how they need their own movement.</t>
+          <t>@ANI I am sure from today onwards, no other women would dare to come out with #MeToo story.  These type of girls never realise, what kind of harm they are doing for #MeToo movement with this cheap behaviour.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#GenderBiasedLaws https://t.co/t8LrTy7aF8 \u201cNo man should take from a woman what a woman does not want to give!- #Farrakhan\u201d\u2014- @minishmael #NOISundays #MeToo #MeToo Will Not Survive Unless We Recognize Toxic Femininity  Women are not monolithic.</t>
+          <t>@annecollier @ranjanakumari #MeToo #MeTooIndia has helped men realize the farce of women empowerment and to come together to fight the bias against them started by feminism. Thanks for this otherwise useless campaign.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>All men aren't devils &amp;amp; all women aren't victims.</t>
+          <t>#MeToo movement will ensure that the future generations are protected. What happened with us won't happen to them. All men aren't devils &amp;amp; all women aren't victims. Every case of must be investigated objectively: #LokmatWomanSummit #Insights @MiLOKMAT https://t.co/ug0TKZkOl4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://t.co/L3eKd8HLdl After Time's Up and #MeToo, women in entertainment still see gender issues that men don't.</t>
+          <t>I heard @timesofindia is calling all women to come forward &amp;amp; share their #MeToo stories. One question. Is it another brand building? What are you doing with the #MeToo  within your organisation? 3 women dared to speak up against @satadruojhaTOI what did you do @vineetjaintimes ?</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>it is very #NSFW: https://t.co/6UpEd7A8j3 https://t.co/K46pftIYi2.</t>
+          <t>@HasibaAmin Hi  We at Womenite, are trying to raise awareness regarding the #metoo movement. We have started a petition on https://t.co/QajHPs08Yu and would love if you could help us by sharing the petition on your page.  The link to the petition is  https://t.co/vWtbFAcdwv</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>More than 1/3 of women have been harassed at some point in their #careers, and in male-dominated jobs the numbers are even higher: https://t.co/2YOL2C01B6 via @WSJ #sexualharassment #metoo #leadership #womenleaders And it would be because of the actions of a few girls like #MeghaSharma who abuse #metoo , one day it will probably have its own #metoo movement as a mark of protest.</t>
+          <t>#MeToo brought the issue mainstream. Let's focus on girls' experiences and address the root cause. We have the power to end the epidemic of sexual harassment and violence #GirlsToo https://t.co/c59QiBWA5m</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>This is nothing but #MeToo4publicity but many male friends has to sacrifice their life, career for women publicity.. https://t.co/EJCTdkOfHK In a #GenerationSafe world, #metoo won't have to be a thing because sexual violence won't be so embedded in our society.</t>
+          <t>I once predicted abt rise of Feminism, and we can now see the same in form of #MeToo.. This is nothing but #MeToo4publicity but many male friends has to sacrifice their life, career for women publicity.. https://t.co/EJCTdkOfHK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>It is clearly used to create a divide in families destroy the cultural fabric of family values https://t.co/ERKULzlpqm Quartz has launched a remarkable set of interviews with 50 men in various fields talking about #MeToo, the biggest threats to men, strategies for speaking out against sexism, and what they've done to contribute to bias at work or at home that they would take back if they could https://t.co/TLeZ8mUlB9 #MeToo Brought Down 201 Powerful Men.</t>
+          <t>Save innocent men   #MeTooIndia mmt coz in schools, colleges, universities, offices, Show Biz girls r seen as low hanging fruits.   I Thinks  #MeToo4Publicity  #MeToo  #MenToo https://t.co/RSubc2rrps</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://t.co/a2OGhcHnYb Could be just me, it seems more dangerous than ever attempting to bribe any woman to lie about this matter after #MeToo and #BelieveWomen.</t>
+          <t>@REITs_Nareit In the era of #MeToo sexist comments like this should not continue to be made. #REITweek https://t.co/nwnKwu09da</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>How does Timesup work?</t>
+          <t>In the past few days, several incidents of faux feminism have woken people up against the \"believe all women\" bullshit being propagated in light of the #MeToo movement.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A safe, healthy world where everyone can work, learn, and thrive\u2014free from sexual violence and other forms of harassment.</t>
+          <t>#MeToo #MeTooIndia #MeTooControversy #MeToo4Publicity   Take that .... This Me too is a well orchestrated Feminist Propaganda...  It is clearly used to create a divide in families destroy the cultural fabric of family values https://t.co/ERKULzlpqm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>When do we want it?</t>
+          <t>@RoArquette Lovely work. And so true that the #metoo movement includes dads, sons and brothers w the Integrity, class, strength and grace to push back against primitive male traditions and behavior. Parents now must raise boys to be civilized and girls who will not suffer abuse in silence.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#metoo https://t.co/yxWCxS5xxv https://t.co/8Mukl7WRzN #MeToo is not enough.</t>
+          <t>\"In the age of the #MeToo movement, the 100 #BestWorkplaces for Women have demonstrated that the office can be a refuge for personal dignity, respect, and hope,\" writes Noshua Watson for @FortuneMagazine.   https://t.co/yfEVU4W1dM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>We need to go out against #patriarchy, #misogyny and other abuse of women.</t>
+          <t>#MeToo is not enough. We need to go out against #patriarchy, #misogyny and other abuse of women. Stop protecting #religion, tradition and \"culture\". #migration  #freedom #equality #atheist #secular</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Join us and be a part of the change: #GirlsToo #MeToo https://t.co/CLUxepsORn https://t.co/HnmVCaTp64 Any feminist lawyers out there want to join forces and learn cutting edge defamation law so we can protect people who speak out in the #metoo movement?</t>
+          <t>This is the most important piece I've ever written. \"For the most part, mainstream media and so-called LGBT organizations have chosen to ignore a specific demographic of the #MeToo movement.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#metoo #metooindia  What employers/individuals mean when they say they don't hire women now https://t.co/GvmpeRCEGe Think about your future after #MeToo.</t>
+          <t>#MeToo #MeTooIndia #MeTooControversy #MeToo4Publicity   Take that .... This Me too is a well orchestrated Feminist Propaganda...  It is clearly used to create a divide in families destroy the cultural fabric of family values https://t.co/ERKULzlpqm.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Never, ever hesitate to believe in your dreams: https://t.co/WGNG3SpNgL #feminism #metoo https://t.co/61DHPkcH4j @c_penticoff #metoo is minting money.. best time to invest in feminism \u2018I knew if a woman could be President, I could do anything I wanted if I set my mind to it\u2019 @sarahwebbishere  #metoo https://t.co/qOJbIzBvzi https://t.co/zTiEbeSxur Very sensible perspective: Both men &amp;amp; women are people.</t>
+          <t>People are speaking about how toxic feminism is damaging the #MeToo movement. Let's talk &amp;amp; address toxic masculinity first - that's where the real problem is. We can address everything else later on!</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I am you.</t>
+          <t>In a #GenerationSafe world, #metoo won't have to be a thing because sexual violence won't be so embedded in our society. #MTVEMA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>How do you get actors to be intimate on stage without crossing a line in the #MeToo Era?</t>
+          <t>And it would be because of the actions of a few girls like #MeghaSharma who abuse #metoo , one day it will probably have its own #metoo movement as a mark of protest.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>@Annamahof1 @Gatonyenn @Darius_M4 The question wasn't about if women are dangerous or not, it was if women are more agreable then men, don't change the topic.</t>
+          <t>The #MeToomvmt was reignited this week, which is why it's more important than ever that we #BelieveWomen   In Stronger. Braver. Wiser, Jennifer Potter shares her #MeToo story, and shows the negative effects that it had on her mental health. https://t.co/p7qsAKYjTv https://t.co/dRY2DNEQQL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The answer is NO -Men give more present than Women -Men help more others on their works -Men don't do #metoo -Men don't ask for divorce at 75% and so on..</t>
+          <t>@mkatju Hahahahaha...Some feminist will look &amp;amp; smell misogynist thought in your question...Real manhood has surfaced within you \ud83d\ude01\ud83d\ude01.. #metooindia list &amp;amp; #MeToo  saga was only for fame  &amp;amp; settle some score...#FeminismIsCancer #feminist @ShefVaidya @UnSubtleDesi @AartiTikoo @smritiirani</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>#metoo My friend @stepbystepyoga wrote this beautiful article. So grateful she can help women find their courage. https://t.co/9J2GhA8XsH\u2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#MeToo Brought Down 201 Powerful Men. Nearly Half of Their Replacements are Women. https://t.co/rWHhY4zO9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#MeToo Brought Down 201 Powerful Men. Nearly Half of Their Replacements Are Women. https://t.co/VlRBDroiUP https://t.co/6Lpp0gOlYY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>After Time's Up and #MeToo, women in entertainment still see gender issues that men don't. \u2066@JBoorstin\u2069 #ClosingTheGap  https://t.co/TnyzUy3yby</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>@ANI Cheapster, such girls mowed down the image of todays women, all #metoo women should oppose her</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Very disturbing story. How the system implemented after the #MeToo movement continues to fail women. How does Timesup work? How do the millions they received serve Hollywood\u2019s... https://t.co/32RwpJTwUb</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>@c_penticoff #metoo is minting money.. best time to invest in feminism</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>I was interviewed by @LeahFessler of @qz on what it means to be a man in the age of #metoo and why I don't identify as a #feminist. Read my interview and that of 49 other men here #HowWellWin; https://t.co/bb4LGOGlya</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quartz has launched a remarkable set of interviews with 50 men in various fields talking about #MeToo, the biggest threats to men, strategies for speaking out against sexism, and what they've done to contribute to bias at work or at home that they would take back if they could https://t.co/TLeZ8mUlB9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Embracing ambiguities n confusions abt #metoo makes me reflect on so much of my academic journey n d creepy men n women I have met. Sometimes it was easy to call out #racism n #sexism, other times I preferred to keep quiet. #Metoo in academia nds 2 account for #racism too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>I thoroughly enjoy being in a room full of men, who talk about the #MeToo movement. I really like their perspective on how they need their own movement. How enlightening.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>No caption seems more appropriate here than #metoo #womenpower #undressingmen https://t.co/tFayQXHsCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>After #MeToo, women in entertainment still struggle to find their voice https://t.co/mOjgFv1Eiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>These #Tech Companies Are Leading the Change Needed for Closing the Gender Gap. In the age of the #MeToo movement, the 100 Best Workplaces for Women have demonstrated that the office can be a refuge for personal dignity, respect, and hope  https://t.co/jusvd9XbVd https://t.co/YAnM6MoJHQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>#MeToo has been elite, privileged, certainly not representative, and importantly, restricted to those who have access to this platform.  We need to talk about this.  Can we do so without discrediting this wave? Without invalidating the struggles of those who have spoken up?.</t>
         </is>
       </c>
     </row>
@@ -832,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,182 +1052,287 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Community 4 Summary</t>
+          <t>Community 3 Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I am not sure this is a victory until he acknowledges the allegations.</t>
+          <t>We  demand National Commission for Men  @PMOIndia @narendramodi @rashtrapatibhvn  Indian  women start using #MeToo for gaining  mileage or politics vendetta, it defeats the purpose of this social cause! Glad that @TajinderBagga has exposed @DrJwalaG with his #HeToo story @mssirsa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'when will it stop?\" But the questions must be \"when did it start?\" And \"How long has it taken for us to standup against it?\" #MeToo Founder Tarana Burke Breaks Down Why Bill Clinton\u2019s Affair With Monica Lewinsky Was an Abuse of Power https://t.co/8LLHUtQtCo The only national leader &amp;amp; politician to have come out in support of #MeToo and the brave women who are claiming their stories and naming their perpetrators.</t>
+          <t>#MeToo4Publicity #metoo has become a platform to level allegations on other people To #Misuse #GenderBiasedLaws #Misandry thinking comes on public platform Listen #MenToo harassed by #Fakecases  Coz of this #IndianMen r soft target #GameofMoney @PMOIndia @vaastavngo  #SaveMenToo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://t.co/1wn3gSdzZ8 I admire the courage of @priyaramani &amp;amp; all the victims who spoke out against sexual harassment &amp;amp; abuse.</t>
+          <t>#metoo has redefined feminism in India but lacking of legal processes is making this moment mere gossipy. Instead proper investigation should be carried out to sort out the truth behind such allegations. It will also not discourage those women who dared to speak the truth.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://t.co/I5hXnCKwMS.</t>
+          <t>When women start using #MeToo for gaining  mileage or politics vendetta, it defeats the purpose of this social cause!  Glad that @TajinderBagga has exposed @DrJwalaG with his #HeToo story  Kindly remember Dr Jwala, Sardars are known for fighting battles for the honour of women! https://t.co/EFo7hVymt4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://t.co/M3gyegGpMc.</t>
+          <t>Asrani on #MeToo Movement: All this is Rubbish and Lie for Publicity  Lo JI Ho gaya Banta Dhar   everybody knows its a publicity stunt #Metoo4publicity  #SpeakUpMan   @vivekagnihotri  @suhelseth  @DrGPradhan  @SimplySajidK  @swarup1972   https://t.co/w9kYSkKlrb.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I am guessing Democrats won't think all women need to be believed anymore.</t>
+          <t>\"What is misleading is that people say #MeToo is an urban elite thing that must reach the poor. It's actually the other way around.\" Meet Bhanwari Devi, who is being called the \"mother\" of India's #MeToo movement. #lighttheway #itsherturn https://t.co/fr5UTZVxcp https://t.co/Je3IPPyVbO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://t.co/kiSFgHoWrr There should be no #Metoo when there is Law and Questioning of not Following Law except the evidence  https://t.co/pRpCvXPv5a  #TheMediaWarfare The #MeToo movement is officially dead.</t>
+          <t>@MeghaSh77484473 U look for #metoo accounts,/ other harassment testimonies from WOMAN online and start waging war against men in question .. now u have concrete proofs to lambast this bitch , still u would be in plausible denial mode..#DOUBLESTANDARD .#INDIANNEWSMEDIA #arrestmeghasharma</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The left only cares about women's sexual assault allegations when it is against a rival political party.</t>
+          <t>#MeToo This story continues and I am forced to bear the humiliation on #metoo by Serving Brig Jai Singh, Dy GOC Jaipur. Despite my repeated complaints, authorities are silent. Follow the link. https://t.co/cCEjnkvS6W @adgpi  @nsitharaman  @DefenceMinIndia  @MirrorNow  @republic</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>This is what the left has come to.</t>
+          <t>@jhunjhunwala @ANI that\u2019s exactly all the men are crying out #MeToo is #GenderBiased .. she wants cigarettes but being a lady won\u2019t go out .. what the F ...  #Metoogang must surely have the answers @BDUTT @soniandtv @mehartweets @Shehla_Rashid</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#MeToo https://t.co/E6R9c0LA9J.</t>
+          <t>#MeToo  First Bangladeshi model, who is also former Miss Ireland, Maksuda Akhter Prioty shared a harassment experience by a corporate person on her Facebook post. #MeeToo is spreading out in Bangladeshi showbiz Media...!!! https://t.co/pE0KhVFo5n</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://t.co/WsyOK79Ewf @kin0k0hatake @Groove__Control @JimSterling Weird how \"there's literal murderers hiding in the good crowd\" is \"racist.\"  Weird how it's been proven this is happening but you don't care.</t>
+          <t>\u2757\ufe0f#MeToo  A journalist has been working on a piece on Ravi Melwani, founder of RMF, since January '18. He spoke to ~12 women Melwani allegedly harassed.  This has been a year in the making. It's finally up, &amp;amp; the stories are horrifying. Read.  https://t.co/I8KhAMmciH  #TimesUp</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://t.co/ttMnUF8meD.</t>
+          <t>She has no cellphone and doesn't use hashtags. \"What is misleading is that people say #MeToo is an urban elite thing that must reach the poor. It's actually the other way around.\" 'They Deserve Justice': Mother Of India's #MeToo Speaks Out https://t.co/ptfAYCIOVv</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I for one believe all women which is why i will believe this Mueller accuser until it is proven she is or isn't lying.</t>
+          <t>@IndiaMeToo @MasalaBai #TimesUp for #metoo , #mentoo #hetoo on horizon..male anger to this smear campaign is brewing.. watch out for #mentoo movement.. has all potential to end #metoo once and for all ..also check out #ArrestMeghaSharma  and also read about @AsiaArgento_AR don't live in silo/echochambr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sure is odd All the media is trying to get out in front of this before we even have the accuser's name though for those noting.. #Metoo @jlmaz @RizzoCampbell @want2brd @ScottMStedman Either way, I honestly see this attack working in their favor one way or the other sadly.</t>
+          <t>@archu243 @MumbaiPolice When will women realise that they r digging a well for themselves by false #metoo allegations</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>As a pensioner he spent over $100k on he's defense.</t>
+          <t>'I was shamed and humiliated': Adhyayan Suman on sharing his #MeToo story 2 years ago against Kangana Ranaut | Bollywood news  https://t.co/MF3UwWwk9d if Man suffer Media House never support , its not 4 both , dont get fool . #SpeakUpMan to Stop  #MeToo4Publicity.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>No one stopped him.</t>
+          <t>Dear #feminists of India, see this.  #MeToo #MeTooIndia #MeTooControversy #MeToo4Publicity   #Police and Judiciary must watch this because no media will show you this and make it popular. #feminist and biased society must change their biased mentality.  #MenToo #HeToo https://t.co/7MYtpopqbS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://t.co/BSZ9Xwpotd.</t>
+          <t>Please stand in solidarity with Apoorva YK and Snigdha Jayakrishnan, who have been rusticated from Symbiosis Law School for speaking up against sexual harassment and initiating a #MeToo protest:  https://t.co/NTGr8QANIs</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#BelieveWomen #MeToo Of all the rags to put it out, it has to be Radar!</t>
+          <t>#MeToo  #MeToo Mumbai Lokhanwala  Hit guard unnecessarily Then #Women striped off herself to avoid arrest and then played #VictimCard  #CrimeHasNoGender #RespectHumanNotGender #PurushAayog https://t.co/gE1A85KjD4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>after his sexual misconduct allegations, yet she is constantly virtue signaling about how Brett Kavanaugh's confirmation was an assault on women \ud83e\udd14  #MeToo #BelieveWomen https://t.co/adZqwiiSPt Megyn Kelly is being fired because she shone too much light on NBC's #MeToo problem https://t.co/tR6cS29G2C The Court Case That Inspired the Gilded Age\u2019s #MeToo Moment https://t.co/Jl4nDc5CTO https://t.co/4kRFyQSoI9 @TheAmandaShea \"Good noW!\"\u00ae,B\"H. The left have bombs, sexual abuse allegations, Russian Ix in to meddling with elections, Sasour, BLM Obama jihadist, liberals #MeToo u name it &amp;amp; bombs 1- AND NOT !</t>
+          <t>Where is all the \"fakivist/ #MeToo / #metooindia \" faminists..? I cdn't see any 'activism' from them in this incident...   This is showing how weak our police system is...  @MumbaiPolice is not completed the analysis of the cctv footage yet?  #ArrestMeghaSharma #HeToo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>You owe me an apology.</t>
+          <t>So to those who are keen on meeting up in Mumbai -  November 4th, Azad Maidan, 5:00pm. No registering, just show up.  No press, no men, no leadership. Just a circle of us healing among each other and having much needed conversations regarding #MeToo.  See you there?</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Not only will they be trying to get away with the worst crimes but manipulating the #MeToo movement.</t>
+          <t>I somehow feel that whenever some serious things like #MeToo happen in #India , people who want to escape from it pay people like #RakhiSawant to divert and dilute the issue.  #MeToo4Publicity #MeTooIndia #MeTooControversy #BollywoodActress</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>They don\u2019t want to put her up.</t>
+          <t>@IndiaWomenBlog, Continuing our curating for the 2nd day today on #MeToo &amp;amp; domestic Workers, rural &amp;amp; women labour, Jaipur based social activist Mewa Bharti thru Rajasthan Mahila Kamgaar Union (RMKU) has helped women claim their rights &amp;amp; establish their identity as workers</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GOP is now so corrupt that their only contacts are sexual predators and their supporters.</t>
+          <t>Let It Be The Beginning Of A #HeToo Movement.. Let Whole India When This Can Happen To A Person Like @TajinderBagga Paaji .. Then A Common Man What Will Be His Situation.. Bcoz Of Stigma He May Attempt Suicide ..So These Spoiled Brats N Fraudulent #MeToo Champs Must Be Exposed.. https://t.co/S7khaoWnd8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I did too like many others.</t>
+          <t>Model #MeghaSharma assaults the building guard for refusing to buy her cigarettes at 2 AM - Building Guard arrested by Police after molestation case filed by same girl. - This is India's #MeToo movement and #Fake  #WomenEmpowerment SHAME!! https://t.co/W1xR9sqOp9</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I spoke up but I can count on one hand those of us  who have demanded accountability from him #MeToo : Where are others?</t>
+          <t>This is the reason why #metoo getting diluted unfortunately! One must #FightforaCause like @Chinmayi but not for #publicitystunt done by few \ud83d\ude4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>@EkaShivMahakaal @shweta_shalini @BJP4India @BJP4Maharashtra @CMOMaharashtra @vaastavngo We are helping the men &amp;amp; mens Family who are harrassed by Girls in #LegalTerrorism #FalseDowry #498a #FakeCases #domesticviolence #FalseAllegations #LegalExtortion #Alimony &amp;amp; #ChildCustody #MeToo #MeTooIndia #MeToo4Publicity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sharman Joshi Opens Up On #MeToo: \"Maligning Someone By A Media Trial Is Unfair.\" #MeToo4Publicity https://t.co/6KF3mt8pxQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Home Minister Rajnath Singh who is making fun of #MeToo campaign in this video is ironically heading a committee to look into cases of sexual harassment at workplace. https://t.co/Hi8i5Lo0bs</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>@DainikBhaskar @INCIndia @RajnathSingh_in See BJP never respects women, while criticizing INC they give example of #MeToo shows how serious are they? Don\u2019t believe women will ever get justice till BJP in Power. #BJP_\u092d\u0917\u093e\u0913_\u0926\u0947\u0936_\u092c\u091a\u093e\u0913 @manojkjhadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>#ArjunSarja has announced he will sue the lady for #metoo allegations. This should be done by every man who has been accused and if they are genuinely affected by false allegations. Just because u have a hashtag u can't do character assassination</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>I hope the #metoo sexual assault allegations in India tear down every perpetrator of sexual violence in Bollywood and beyond. I hope the industry crumbles from within and rebuilds something new</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tell me how #MeToo isn't relevant in Pakistan again? https://t.co/D7Hw9KCULD</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Make ourselves so strong that #METOO can be dealt then and there! NO means NO! #BusinessBeyondBias Have a Voice Bring the Change! @SAPIndia @DrRituAnand @sangeeta_prsd @_TanviD @milindrunning</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>This psycho female has sympathy for all the Bollywood turds on #MeToo. But she can't tolerate ONE woman Sannyasi exposing the filth of Congress.  What #SadhviPragya shows is the FAKE Hindu terror YOU spread What u forget is, u may try to mess with the truth, but u CANT hide it https://t.co/2Rfua0P17l</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>As awakened and socially courageous group of people, it is our duty to speak up for young Rajalakshmi who lost her life calling out her abuser and saying #MeToo. Let us say, #TimesUp to a casteist power abusing social environment. #VoicesFromTheMargins #DalitLivesMatter https://t.co/J499j81Ooi</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>If #MeToo is to work, we must call out the men we love | Sonia Sodha https://t.co/4rV3yKCb8p</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>[Apart from the injustice of a pro-north, pro-Hindi bias, this cherrypicking is also denying #MeTooIndia the strength of larger numbers that it would get from greater inclusiveness. #MeToo in India\u2019s \u2018Ollywoods: Cheer this Moment, But With Caution\u00a0 https://t.co/wFPwo5mIsN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>@dhanyarajendran @sruthihariharan I tweeted this earlier, repeating again. The reason why #metoo is fast losing its credibility is because of people like her. She was gloating at the time of the movie release that it was her good fortune to work with an ace like Arjun Sarja, moron now says this. Blvbl?</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>An other side of the coin! #MeTooIndia #MeToo movement being misused \ud83d\ude4f @Chinmayi @Samanthaprabhu2 https://t.co/JXMh38xfbX</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>@yolandebouka utterly frustrating when some of these women are #metoo crusaders, without a thot abt their own complicity, their racism and their bullying! :(</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,182 +1358,287 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Community 3 Summary</t>
+          <t>Community 0 Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Home Minister Rajnath Singh who is making fun of #MeToo campaign in this video is ironically heading a committee to look into cases of sexual harassment at workplace.</t>
+          <t>The #MeToo movement is officially dead.   The left only cares about women's sexual assault allegations when it is against a rival political party.  They NEVER cared about the claims of the victims!  #ThesePeopleAreSick #HypocriticalLeft #VoteDemsOut #PedoWood #RapeIsntAJoke https://t.co/tkhR2ssXaK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>This has been a year in the making.</t>
+          <t>If this happened to be the other way around, mainstream feminist news channels like @MirrorNow would have been running the story all day. This kind of bias will only do more harm to the #MeToo movement. #ArrestMeghaSharma https://t.co/16WT7hXUUn</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>This should be done by every man who has been accused and if they are genuinely affected by false allegations.</t>
+          <t>#MeToo Is a \u2018Movement Toward Victimization,\u2019 G.O.P. Senate Candidate Says https://t.co/bDBMHGeaCW</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Just because u have a hashtag u can't do character assassination \u201cIf a woman is unveiled it gives a man the right 2 demand sexual favors\u201d.When it comes 2 sexual harassment in Islamic Republic it is always your fault if U don\u2019t wear hijab.</t>
+          <t>Another day, another dirty trick to try to use the #metoo politics movement to undermine a Trump critic - today it\u2019s the Special Counsel. \u2066#WeSaidEnough\u2069 and will not be fooled: reject the LIES and #ProtectMueller! #TuesdayMotivation https://t.co/Xt4hrEcBRv</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#BJP_\u092d\u0917\u093e\u0913_\u0926\u0947\u0936_\u092c\u091a\u093e\u0913 @manojkjhadu No #MeToo for Bengaluru\u2019s Garment Workers - \"while perceptions about sexual violence in workplaces is changing and more women are opening up about their experiences, the garment workers sector, mostly comprising women employees, continues to suffer.\" https://t.co/nwPKkolwHD @archu243 @MumbaiPolice When will women realise that they r digging a well for themselves by false #metoo allegations All Laws in India favours women and men are declared culprit based on verbal allegations.</t>
+          <t>The only national leader &amp;amp; politician to have come out in support of #MeToo and the brave women who are claiming their stories and naming their perpetrators. Thank you @RahulGandhi &amp;amp; hope other leaders take note &amp;amp; follow suit. Zero tolerance for sexual predators. #creditwheredue https://t.co/X9cNkJX1Rg.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>You have to be a worthless trash of a human being as well.</t>
+          <t>#Metoo  is a upcoming trend where #WomenEmpowerment misuse law to #harass innocent people. #GenderBiasedLaws https://t.co/t8LrTy7aF8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#MeToo in India\u2019s \u2018Ollywoods: Cheer this Moment, But With Caution\u00a0 https://t.co/wFPwo5mIsN As awakened and socially courageous group of people, it is our duty to speak up for young Rajalakshmi who lost her life calling out her abuser and saying #MeToo.</t>
+          <t>@JayWebberNJ Analysis | The Daily 202: Trump\u2019s mockery of the #MeToo movement underscores the GOP\u2019s problem with women in 2018 https://t.co/sAcdGOdAjQ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#KawaljitAnand #MeTooIndia https://t.co/zJN8LUzMCa If #MeToo is to work, we must call out the men we love | Sonia Sodha https://t.co/4rV3yKCb8p When woman file #FakeCases Indian police.. #Fact #MeToo #Statue_Of_Unity https://t.co/P0NiDDlLxf #MeToo Pls empower the children in your houses to speak up.</t>
+          <t>Alt-Right Conspiracy Theorist Looks to Harness #MeToo Movement Against Special Counsel Mueller https://t.co/YyUhodbBK6 via @SweetieWalker #TuesdayThoughts #MeToo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#MeToo #MeTooIndia #MeTooControversy #MeToo4Publicity   #Police and Judiciary must watch this because no media will show you this and make it popular.</t>
+          <t>Thanks @BDUTT for being the rare voice in the industry to believe the women who spoke out against him. And thanks specially to @natashjarathore for opening the door for others who wanted to speak up. I am not sure this is a victory until he acknowledges the allegations. #metoo https://t.co/LUY1k9JYjF</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>..those who may not be a celebrated journo, or not from the English media.</t>
+          <t>@ZellnerLaw @metacritic @lifeafterten @EFMoriarty @michellemalkin I wonder how many woman # the ex-prosecutor in the #metoo campaign?  It's never just an isolated incident when it comes to men and abusing power.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://t.co/k1nONH3RTK.</t>
+          <t>The #Metoo movement has been controversial regarding Brent Kavanaugh now being a part of the U.S Supreme Court. #CSULB104</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- This is India's #MeToo movement and #Fake  #WomenEmpowerment SHAME!!</t>
+          <t>@MIKENY78 @SmartKehan @MailOnline That to they lied and now they want to lynch every Man on Earth . The Whole #metoo is Stupid . It\u2019s Dangerous to believe every woman . No Man is safe anymore when someone doesn\u2019t like you they cry #metoo . It can happen to everyone</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>As I type this, I\u2019m looking at his face on the cover page of a newspaper in an ad of his concert that is yet to happen.</t>
+          <t>I admire the courage of @priyaramani &amp;amp; all the victims who spoke out against sexual harassment &amp;amp; abuse. @mjakbar s resignation is a moral victory for everyone. The defamation case can\u2019t change that. The #MeToo movement needs support across party lines. https://t.co/I5hXnCKwMS.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>He is a man, no?\".</t>
+          <t>@ScottMStedman @JacobAWohl is letting the cat out of the bag that the @GOP plans on trying a #MeToo scandal on #RobertMueller.   Hoping the media and the left will fall for it considering the right could give two #BrettKavanaugh shits about sexual assault.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#MeToo https://t.co/jROQwZbCrp After #MeToo another dubious part of @RahulEaswar stands exposed   #Sabarimalai Tantri family disowns him and alleges He forged the signatures of Main Tantri and also withdrew huge sums of amount by dubious means   https://t.co/emagcih0dw Lol the way #SruthiHariharan ran away from media , that shows Who is getting caught \ud83d\ude02\ud83e\udd23 Im very happy that #ArjunSarja sir Filled two case against her , Lets see how will this cheap people handle \ud83d\ude02 , really they messed with  big man , know deal with it \ud83d\ude0e #Metoo https://t.co/i2JMR5MdkR Actress @sruthihariharan who has filed sexual harassment charges against Actor #Arjun is removed from a New Kannada movie #DaariThapisuDevare  Dir #Lingadevaru says since she has to go to court often, he is removing her.. #MeToo issue should have been resolved inside 4 walls.. https://t.co/b2D7S767Mq Yesterday \"sweetu\" is 2day's #MeToo  #FakeFeminism #FakeMeToo #FakeCases #FakeAllegations using #MeToo4Publicity @ndtv @SwetaSinghAT @rahulkanwal @sudhirchaudhary @RajatSharmaLive @IndiaToday.</t>
+          <t>#MeToo4Publicity  The #GenderBiasedLaws  were pushing men to commit suicide. #MeToo is adding fuel to the fire ! #Mangina  in firing line of #FeministMafia.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&amp;amp; Woman is known by the company,she discards.</t>
+          <t>If the fear about #MeToo is false accusations against men, then the GOP SHOULDN'T BE OFFERING $$$ TO WOMEN TO MAKE FALSE ALLEGATIONS AGAINST ROBERT MUELLER!!! https://t.co/2yUJg5B2kE #AreWeGreatEnoughYet</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Really the time's up!!</t>
+          <t>#BillShine will not get away with his intimidation of sexual assault victims @foxtv the truth is on their way! #metoo @whitehouse @doj</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#MeToo please read her story in the FB link with this tweet.</t>
+          <t>@NPR Huh, isn't this what the @GOP and other conservatives accuse #MeToo of doing? The way this horrible version of the Republican Party projects is absolutely fascinating and terrifying. What a sham.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#MeghaSharma #MeToo In India, women are no longer prepared to stay silent.</t>
+          <t>WATCH: @Alyssa_Milano had me forcibly removed from the #MeToo panel at #Politicon after I asked her to condemn her friend @lsarsour, who is an advocate of Sharia Law.   Alyssa pretends to care about women and is clearly LYING when she says she\u2019s open\u201d to dialogue.  #MeToo = SHAM! https://t.co/M3gyegGpMc.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#metoo  https://t.co/EsMpYFbBGM.</t>
+          <t>Instead of arresting this women @CPMumbaiPolice taking \u092b\u093f\u0930\u0915\u0940 of common man coz its #MeToo #MeTooIndia  #MeToo4Publicity This is why #Feminismiscancer  #feminismismisandry #Crimebywomen https://t.co/Xqr4soFDYu</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#TimesUp #MeToo #MeTooIndia.</t>
+          <t>@jlmaz @RizzoCampbell @want2brd @ScottMStedman Either way, I honestly see this attack working in their favor one way or the other sadly. If people dismiss the upcoming false claims, they'll then try to discredit the #MeToo movement which was of major discussion during Brett's hearing.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>You know when the moment you realise this is too much.</t>
+          <t>@bubblespre @Chinmayi False/Wrong accusation and not even an apology. disgusting!!!!! This is the danger behind #metoo and baseless accusations. Those who falsely/wrongly accuse others ought to be punished by law. Baseless accusations must have legal consequences. https://t.co/ePmfOYnLJB</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I respect tanushree dutta she is genuine and good actor but at the same time I don't understand how she can say about Rakhi savant she is also a lady first... acc to me she is also a talented lady on same time we know very well how is leading his life #metoo not for girl #Metoo Founder Director, St. Stephen's School, Chandigarh Harold Carver- the 'Living Legend' in 'Indian Expose;: Harold Carver sexually abused children: Sanjay Austa https://t.co/zfaZWA4QPj via @IndianExpose #metoo @DeShobhaa No Hindu Vrat is compulsory , generally women who are in joyous and happy status of wifehood enjoy performing this Vrat for their husbands .</t>
+          <t>@kylegriffin1 Make no mistake. This is not only an attempt to discredit Mueller, but also to discredit the entire #MeToo movement. Expect to hear much complaining that Democrats won't believe this accuser after saying believe women.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Why are you mocking them ?</t>
+          <t>The entire Kavanaugh nomination was about the #MeToo movement. #copolitics #coleg #cogov https://t.co/XEmM8na6po</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>So Tata Sons drops Suhel Seth after #metoo controversy.</t>
+          <t>@RogueNASA Except they actually know Kavanaugh allegations were true, they just see no downside of weaponizing #metoo if it works Mueller is discredited and they have grounds to fire him. If it fails they can say, \"look women DO makeup allegations to harm innocent men!\</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>@BisyarVickram These are the kind of females (for want of a better term!) who years later will might have gone ahead with their #MeToo sob stories to a hypocrite media/feminists! It is lucky for this guy/security agents that this video evidence is available!!! #MeToo4Publicity</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>So #Mueller is getting his #metoo moment. I am guessing Democrats won't think all women need to be believed anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Let's talk about absolute hypocrisy!  The left has stood by while these three have done their dirt!   Where's the outrage?!   Way to highjack #MeToo movement for political gain. Sad! https://t.co/ttMnUF8meD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Strange to see the Telegraph join the #MeToo campaign after spending so long traducing anyone who dared accuse establishment figures of child sexual abuse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>@FoxNews we DEMAND you cover the sex scandal unfolding within  NJ Governor Phil Murphy\u2019s administration. In the era of #MeToo, and given the horrific treatment of SCOTUS Justice Brett Kavanaugh over uncorroborated claims of sex assault, the case of #katiebrennan merits attention!.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The #MeToo movement is at risk of discredit by the hypocrisy of those who won\u2019t judge friends by the same standard as enemies.  https://t.co/3Ty4F5v9PH</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Watch how fast @TheDemocrats &amp;amp; #FakeNews smear #Mueller\u2019s #MeToo accusers as \u201ctrailer trash,\u201d \u201cpaid off,\u201d and \u201cliars,\u201d w/ or w/ out corroborating evidence.   As w/ #Kavanaugh, I withhold judgment until credibility of allegations can be weighed.   Leftist hypocrisy is on display.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Holy hell.... not only is Trump trying to escape an active &amp;amp; effective investigation, he is also trying to mock the #MeToo movement. Repulsive. Thank you for bringing this to light. Sounds like a Roger Stone idea. #FBI #Mueller https://t.co/SdiIXeA03x</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>@NatashaBertrand @jaketapper Fox and Conservative media will roll with push this new theory and claim media is covering it up. They will try to shrink the gender gap just before the election. It's weaponizing #metoo the way they assumed Dems did against Kavanaugh. Probably what inspired this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BREAKING: Special Counsel Robert Mueller accused of Rape by a very credible witness #BelieveSurvivors #MeToo https://t.co/E2o4rC069t</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>@MinistryWCD @Manekagandhibjp It's an excellent example of hypocrisy by Govt, when innocent men's where roped in #fakecases fake #498a which lead them to #suicide there wasn't anyone to come in support,  but when opportunistic like #TanushreeDutta stepped in then committee was formed  #MeToo4Publicity #MeToo https://t.co/rgLJMQ439H.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>@krassenstein @EdKrassen So the GOP is trying to weaponize #MeToo to shut down the Russia investigation. Why am I not surprised?</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>There should be no #Metoo when there is Law and Questioning of not Following Law except the evidence  https://t.co/pRpCvXPv5a  #TheMediaWarfare</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>#MeToo  is against constitution. Only purpose is #MeToo4Publicity https://t.co/a3ReEmLE3n</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>@abc15 I light of #metoo we see how she defended Bill and tried to silence his female accusers. She has said Americans should not be civil if they disagree. These things already haunt in her own party. They don\u2019t want to put her up.</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,383 +1664,322 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Community 0 Summary</t>
+          <t>Final Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes the #MeToo  movement was highly necessary but if we keep misusing it like this, soon it is all going to be a huge joke and no one is going to take a single post seriously.</t>
+          <t>#MeToo is meant to empower girls and boys who face harassment. Instead of shaming victims, let us shame the oppressor and hold him accountable before it reaches such a fatal state! #JusticeForRajalakshmi  https://t.co/d3iANLQ5iG</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://t.co/bzYCB0lP2T An excellent article about #metoo in the university context by @mintofelix and @fijmarshall  https://t.co/lunstRms15 The #MeToo movement is at risk of discredit by the hypocrisy of those who won\u2019t judge friends by the same standard as enemies.</t>
+          <t>#Metoo  is a upcoming trend where #WomenEmpowerment misuse law to #harass innocent people. #GenderBiasedLaws https://t.co/t8LrTy7aF8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://t.co/3Ty4F5v9PH The #MeToomvmt was reignited this week, which is why it's more important than ever that we #BelieveWomen   In Stronger.</t>
+          <t>I just pulled this #metoo article out of my recent blog archives because I thought it was worth #sharing again.\u00a0 Sexual Allegations in a World of Denial and Acceptance \u201cResist the urge to make the accuser an additional target of #abuse\u201d\u00a0 Read, and see if you agree, and don't\u2026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Braver.</t>
+          <t>#MeToo4Publicity #metoo has become a platform to level allegations on other people To #Misuse #GenderBiasedLaws #Misandry thinking comes on public platform Listen #MenToo harassed by #Fakecases  Coz of this #IndianMen r soft target #GameofMoney @PMOIndia @vaastavngo  #SaveMenToo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://t.co/p7qsAKYjTv https://t.co/dRY2DNEQQL Weaponizing the #metoo movement.</t>
+          <t>#metoo has redefined feminism in India but lacking of legal processes is making this moment mere gossipy. Instead proper investigation should be carried out to sort out the truth behind such allegations. It will also not discourage those women who dared to speak the truth.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>But they will be educated and will be able to protect themselves from predators so that they will never ever, ever have to say the words 'me too'.\" - @Aly_Raisman https://t.co/Y9bmda3fHd Now this is the other side of the #MeToo movement which makes many apprehensive about an all-out support to the surely needed &amp;amp; important social movement ...</t>
+          <t>If this happened to be the other way around, mainstream feminist news channels like @MirrorNow would have been running the story all day. This kind of bias will only do more harm to the #MeToo movement. #ArrestMeghaSharma https://t.co/16WT7hXUUn</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@SayftyCom https://t.co/mGejceqjxu For #DomesticViolenceAwarenessMonth I wrote for @ELLEmagazine on how important it is #domesticviolenceawareness is included in #MeToo and the #metoomvmt.</t>
+          <t>@ANI I am sure from today onwards, no other women would dare to come out with #MeToo story.  These type of girls never realise, what kind of harm they are doing for #MeToo movement with this cheap behaviour.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I woke up to find out that the hashtag #metoo had gone viral and I didn't see any of the work I laid out over the previous decade attached to it.</t>
+          <t>#metoo #Metoo  Women are constantly unheard until too late. The Police failed, irresponsible and allowed another woman\u2019s untimely death . @TheView @AC360 @GMA #VoteForOurLives #HateCrimes https://t.co/5nTUmq9qT0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>+ https://t.co/VmfwTxhcIo.</t>
+          <t>When women start using #MeToo for gaining  mileage or politics vendetta, it defeats the purpose of this social cause!  Glad that @TajinderBagga has exposed @DrJwalaG with his #HeToo story  Kindly remember Dr Jwala, Sardars are known for fighting battles for the honour of women! https://t.co/EFo7hVymt4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Can we do so without discrediting this wave?</t>
+          <t>@MeghaSh77484473 U look for #metoo accounts,/ other harassment testimonies from WOMAN online and start waging war against men in question .. now u have concrete proofs to lambast this bitch , still u would be in plausible denial mode..#DOUBLESTANDARD .#INDIANNEWSMEDIA #arrestmeghasharma</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Without invalidating the struggles of those who have spoken up?.</t>
+          <t>The #MeToo movement is officially dead.   The left only cares about women's sexual assault allegations when it is against a rival political party.  They NEVER cared about the claims of the victims!  #ThesePeopleAreSick #HypocriticalLeft #VoteDemsOut #PedoWood #RapeIsntAJoke https://t.co/tkhR2ssXaK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>check this: Chinese Activists Are Using Blockchain to Document #MeToo Stories https://t.co/kwDlp5BAGi My take, the need to emphasis this, the Economics of #metoo https://t.co/omPqsSNVbh @ANI It sounds so stupid, i think you should tell the truth that you did all these things for cheap publicity and misuse of the #MeToo campaign.. Chinese Activists Are Using Blockchain to Document #MeToo Stories https://t.co/ql0vh2NKds https://t.co/PS88P9U2AO But the analysis shows that the #MeToo movement shook, and is still shaking, power structures in society\u2019s most visible sectors.\" https://t.co/M0LobUL1VQ Make ourselves so strong that #METOO can be dealt then and there!</t>
+          <t>#WriteYourResistance I\u2019ll fully admit that the #MeToo movement is one of the reasons I\u2019m writing my Medusa project. Queer people experience a higher rate of sexual assault that often times goes unreported. https://t.co/GYwOE4ugcR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#MeTooIndia #MeToo movement being misused \ud83d\ude4f @Chinmayi @Samanthaprabhu2 https://t.co/JXMh38xfbX Full house at @ChathamHouse event on #metoo, one year on.</t>
+          <t>I heard @timesofindia is calling all women to come forward &amp;amp; share their #MeToo stories. One question. Is it another brand building? What are you doing with the #MeToo  within your organisation? 3 women dared to speak up against @satadruojhaTOI what did you do @vineetjaintimes ?</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>\"Opening up space is a very political act.</t>
+          <t>The only national leader &amp;amp; politician to have come out in support of #MeToo and the brave women who are claiming their stories and naming their perpetrators. Thank you @RahulGandhi &amp;amp; hope other leaders take note &amp;amp; follow suit. Zero tolerance for sexual predators. #creditwheredue https://t.co/X9cNkJX1Rg.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>That's exactly what #metoo does.\" - @shaistaAziz https://t.co/rJCqHmuqOU What is the @EP_President doing to support the implementation of demands raised by @MeTooEP?</t>
+          <t>@drjordansavage @sarahditum I dunno if you've heard about this whole #metoo thing, turns out constant sexual harassment and violence against women by penis-having people is kind of a problem...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#MeToo #MeTooEP https://t.co/YhSYeGpK4V Apparently I'm only scared because of #metoo even though the movement didn't exist at the time @DC_Douglas @Jack_Burkman Hey Jack, not cool man, not cool.</t>
+          <t>#MeToo4Publicity  The #GenderBiasedLaws  were pushing men to commit suicide. #MeToo is adding fuel to the fire ! #Mangina  in firing line of #FeministMafia.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I hear people.</t>
+          <t>@annecollier @ranjanakumari #MeToo #MeTooIndia has helped men realize the farce of women empowerment and to come together to fight the bias against them started by feminism. Thanks for this otherwise useless campaign.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://t.co/v9vHancZgO https://t.co/qik4aEmB0c \u201cI paid a terrible, terrible price for my #MeToo.\u201d  https://t.co/70bkGVCNhZ Time\u2019s Up, the group formed after #MeToo, has hired Lisa Borders as its first CEO, via @mic https://t.co/u5dcoTscGe We need to send out the message \u201cThis not how we behave in our sector\u201d.</t>
+          <t>@annavetticad @TheQuint Salman\u2019s is an issue of domestic violence. Not to be conflated with #MeToo. Diluting the def of #MeToo will dampen its impact. It\u2019s def should be restricted to people in power sexually exploiting the weak. Not domestic violence or failed relationships</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>\u2022 CK was \u201cyounger,\u201d has been \u201cpaying his dues\u201d \u2013 where were your follow-up questions?</t>
+          <t>#METOO. MEN WHO SEXUALLY HARASS WOMEN DON\u2019T SEE IT AS SEXUAL HARASSMENT #WOMENTOO DOES THE SAME.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>That\u2019s sufficient from a club owner?</t>
+          <t>@mkatju At last a former judge has commented reality of #MeTooIndia . Those who level #MeToo allegations have been in casting couch to reach a position in life. Prostitution is a business but these #MeToo gang are worse than that. #FalseRapeCases #498a #SpeakUpMan</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Well done #hamont.</t>
+          <t>#MeToo brought the issue mainstream. Let's focus on girls' experiences and address the root cause. We have the power to end the epidemic of sexual harassment and violence #GirlsToo https://t.co/c59QiBWA5m</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>It's effects has lasted for generations and the time to cleanse it all out is now.</t>
+          <t>#MeToo Will Not Survive Unless We Recognize Toxic Femininity  Women are not monolithic. Pretending they are holds everyone back.   https://t.co/lI0LRZQKtk</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>This was never ours to begin with.</t>
+          <t>@BisyarVickram These are the kind of females (for want of a better term!) who years later will might have gone ahead with their #MeToo sob stories to a hypocrite media/feminists! It is lucky for this guy/security agents that this video evidence is available!!! #MeToo4Publicity</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>When asked, if it is a team outing, he replied who needs more people when its me and him.</t>
+          <t>Save innocent men   #MeTooIndia mmt coz in schools, colleges, universities, offices, Show Biz girls r seen as low hanging fruits.   I Thinks  #MeToo4Publicity  #MeToo  #MenToo https://t.co/RSubc2rrps</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>When I said no, he kept on asking me &amp;amp; said he ll book everything.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Final Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Women and so many men finally found the strength to share the stories of sexual misconduct and assault and some men need to joke about it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>I just pulled this #metoo article out of my recent blog archives because I thought it was worth #sharing again.\u00a0 Sexual Allegations in a World of Denial and Acceptance \u201cResist the urge to make the accuser an additional target of #abuse\u201d\u00a0 Read, and see if you agree, and don't\u2026 Everyone pays a price when we allow sexual harassment to persist in the workplace.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>#metoo If a woman shares a #metoo without evidence, it's taken to be true coz it's a women's testimony, a man coming out with #HeToo story, people would be doubtful,  &amp;amp; question the evidences, the intent &amp;amp; will never except the man as victim.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://t.co/QklXl4a25o Still, better than the sports masseur who said I lit him up like a Christmas tree, stroked the side of my breast, put his penis in my upturned palm &amp;amp; said he\u2019d love to put cameras all over my house so he could watch me all day ...I just can\u2019t even...  #metoo #sexualharassment Sexual Harassment and Non-Disclosure Agreements \u2013 the British #Metoo scandal, please read our latest #blog by Lauren Bhole from @JMWemployment team #emplaw #employmentlaw #NDA  https://t.co/ZIrQi8dh8n \u201cAs I spoke the names of the men who harmed me and recounted every detail of the assaults to journalists, the protective scar tissue over my heart began ripping open.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>To equate tht with #MeToo\u2060 \u2060not only shows that you are a bitter old woman who has no respect for Hinduism, our culture, our tradition, the choice of women to do what they want, or the #MeToo\u2060 mvmnt, but also that writing soft porn has incapacitated ur mental faculties https://t.co/5RUdz9I1Jr In the current climate of #MeToo if someone did that to you at your place of work would you just let it go?</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>She should be accountable and is not.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Now I\u2019m not.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I was lucky, his ex said he was violent #metoo @GabbbarSingh Now she will play the game of #MeToo with you or claimed to be harassment \ud83d\ude44 Rotherham sex abuse victim: Police did not take my case seriously  The victim says she felt that \"nothing was done\" after she reported being sexually abused to South Yorkshire Police.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Thanks @je_ne_tweet_pas for all the back up as always https://t.co/ZCS0lokx04 https://t.co/qot0eqdHd3 I was interviewed by @LeahFessler of @qz on what it means to be a man in the age of #metoo and why I don't identify as a #feminist.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>More than 1/3 of women have been harassed at some point in their #careers, and in male-dominated jobs the numbers are even higher: https://t.co/2YOL2C01B6 via @WSJ #sexualharassment #metoo #leadership #womenleaders And it would be because of the actions of a few girls like #MeghaSharma who abuse #metoo , one day it will probably have its own #metoo movement as a mark of protest.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>#metoo #metooindia  What employers/individuals mean when they say they don't hire women now https://t.co/GvmpeRCEGe Think about your future after #MeToo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Never, ever hesitate to believe in your dreams: https://t.co/WGNG3SpNgL #feminism #metoo https://t.co/61DHPkcH4j @c_penticoff #metoo is minting money.. best time to invest in feminism \u2018I knew if a woman could be President, I could do anything I wanted if I set my mind to it\u2019 @sarahwebbishere  #metoo https://t.co/qOJbIzBvzi https://t.co/zTiEbeSxur Very sensible perspective: Both men &amp;amp; women are people.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>I am you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>The answer is NO -Men give more present than Women -Men help more others on their works -Men don't do #metoo -Men don't ask for divorce at 75% and so on..</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>'when will it stop?\" But the questions must be \"when did it start?\" And \"How long has it taken for us to standup against it?\" #MeToo Founder Tarana Burke Breaks Down Why Bill Clinton\u2019s Affair With Monica Lewinsky Was an Abuse of Power https://t.co/8LLHUtQtCo The only national leader &amp;amp; politician to have come out in support of #MeToo and the brave women who are claiming their stories and naming their perpetrators.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>#MeToo https://t.co/E6R9c0LA9J.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>#BelieveWomen #MeToo Of all the rags to put it out, it has to be Radar!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>after his sexual misconduct allegations, yet she is constantly virtue signaling about how Brett Kavanaugh's confirmation was an assault on women \ud83e\udd14  #MeToo #BelieveWomen https://t.co/adZqwiiSPt Megyn Kelly is being fired because she shone too much light on NBC's #MeToo problem https://t.co/tR6cS29G2C The Court Case That Inspired the Gilded Age\u2019s #MeToo Moment https://t.co/Jl4nDc5CTO https://t.co/4kRFyQSoI9 @TheAmandaShea \"Good noW!\"\u00ae,B\"H. The left have bombs, sexual abuse allegations, Russian Ix in to meddling with elections, Sasour, BLM Obama jihadist, liberals #MeToo u name it &amp;amp; bombs 1- AND NOT !</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>He is a man, no?\".</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>#metoo  https://t.co/EsMpYFbBGM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>You know when the moment you realise this is too much.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://t.co/bzYCB0lP2T An excellent article about #metoo in the university context by @mintofelix and @fijmarshall  https://t.co/lunstRms15 The #MeToo movement is at risk of discredit by the hypocrisy of those who won\u2019t judge friends by the same standard as enemies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://t.co/p7qsAKYjTv https://t.co/dRY2DNEQQL Weaponizing the #metoo movement.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>But they will be educated and will be able to protect themselves from predators so that they will never ever, ever have to say the words 'me too'.\" - @Aly_Raisman https://t.co/Y9bmda3fHd Now this is the other side of the #MeToo movement which makes many apprehensive about an all-out support to the surely needed &amp;amp; important social movement ... @SayftyCom https://t.co/mGejceqjxu For #DomesticViolenceAwarenessMonth I wrote for @ELLEmagazine on how important it is #domesticviolenceawareness is included in #MeToo and the #metoomvmt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>check this: Chinese Activists Are Using Blockchain to Document #MeToo Stories https://t.co/kwDlp5BAGi My take, the need to emphasis this, the Economics of #metoo https://t.co/omPqsSNVbh @ANI It sounds so stupid, i think you should tell the truth that you did all these things for cheap publicity and misuse of the #MeToo campaign.. Chinese Activists Are Using Blockchain to Document #MeToo Stories https://t.co/ql0vh2NKds https://t.co/PS88P9U2AO But the analysis shows that the #MeToo movement shook, and is still shaking, power structures in society\u2019s most visible sectors.\" https://t.co/M0LobUL1VQ Make ourselves so strong that #METOO can be dealt then and there!</t>
+          <t>And it would be because of the actions of a few girls like #MeghaSharma who abuse #metoo , one day it will probably have its own #metoo movement as a mark of protest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>The #MeToo movement must not die an early death just after creating a few sparks here and there. It must spread like wildfire across our patriarchal society and institutions.  It ought to reflect the multidimensional oppression and discrimination women face  everywhere. https://t.co/L3eKd8HLdl</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#MeToo Is a \u2018Movement Toward Victimization,\u2019 G.O.P. Senate Candidate Says https://t.co/bDBMHGeaCW</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#MeToo movement will ensure that the future generations are protected. What happened with us won't happen to them. All men aren't devils &amp;amp; all women aren't victims. Every case of must be investigated objectively: #LokmatWomanSummit #Insights @MiLOKMAT https://t.co/ug0TKZkOl4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>People are speaking about how toxic feminism is damaging the #MeToo movement. Let's talk &amp;amp; address toxic masculinity first - that's where the real problem is. We can address everything else later on!</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>@archu243 @MumbaiPolice When will women realise that they r digging a well for themselves by false #metoo allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>@ANI Cheapster, such girls mowed down the image of todays women, all #metoo women should oppose her</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WATCH: @Alyssa_Milano had me forcibly removed from the #MeToo panel at #Politicon after I asked her to condemn her friend @lsarsour, who is an advocate of Sharia Law.   Alyssa pretends to care about women and is clearly LYING when she says she\u2019s open\u201d to dialogue.  #MeToo = SHAM! https://t.co/M3gyegGpMc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Instead of arresting this women @CPMumbaiPolice taking \u092b\u093f\u0930\u0915\u0940 of common man coz its #MeToo #MeTooIndia  #MeToo4Publicity This is why #Feminismiscancer  #feminismismisandry #Crimebywomen https://t.co/Xqr4soFDYu</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>@jhunjhunwala @ANI that\u2019s exactly all the men are crying out #MeToo is #GenderBiased .. she wants cigarettes but being a lady won\u2019t go out .. what the F ...  #Metoogang must surely have the answers @BDUTT @soniandtv @mehartweets @Shehla_Rashid</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Don't get fooled by #MeToo gang . #SpeakUpMan to Stop  #MeToo4Publicity  https://t.co/7OFBeCFJC0 Don't get fooled by #MeToo gang . #SpeakUpMan to Stop abuse of Men and Demand Gender Neutral law. If Women do not do such crime , why they afraid for Gender neutral Law?</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>#metoo movt. is a great opportunity to think of what goes around us. The spotlight should be on everyday racism n sexism ard us in which even women are complicit. Careerist women who have no regard for decency n integrity, And both men n women who share the sense of entitlement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>@MIKENY78 @SmartKehan @MailOnline That to they lied and now they want to lynch every Man on Earth . The Whole #metoo is Stupid . It\u2019s Dangerous to believe every woman . No Man is safe anymore when someone doesn\u2019t like you they cry #metoo . It can happen to everyone</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>@annavetticad These woke men, of course. Rely on them to tell us where #MeToo should be restricted and where not. They put domestic violence and failed relationships in the same line. And they are soooo woke, boi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>@REITs_Nareit In the era of #MeToo sexist comments like this should not continue to be made. #REITweek https://t.co/nwnKwu09da</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>@SmartKehan @MIKENY78 @MailOnline #metoo ignores evidence and that\u2019s not right because a Man is Human and he has the rights as Woman but they doesn\u2019t understand that . #Feministsaremonster</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>@JayWebberNJ Analysis | The Daily 202: Trump\u2019s mockery of the #MeToo movement underscores the GOP\u2019s problem with women in 2018 https://t.co/sAcdGOdAjQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>@AstorGoodwin How dare Dump, or any of his minions, try to use #MeToo to stop this investigation. It\u2019s disgusting!</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>I admire the courage of @priyaramani &amp;amp; all the victims who spoke out against sexual harassment &amp;amp; abuse. @mjakbar s resignation is a moral victory for everyone. The defamation case can\u2019t change that. The #MeToo movement needs support across party lines. https://t.co/I5hXnCKwMS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thanks @BDUTT for being the rare voice in the industry to believe the women who spoke out against him. And thanks specially to @natashjarathore for opening the door for others who wanted to speak up. I am not sure this is a victory until he acknowledges the allegations. #metoo https://t.co/LUY1k9JYjF</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>@mkatju Hahahahaha...Some feminist will look &amp;amp; smell misogynist thought in your question...Real manhood has surfaced within you \ud83d\ude01\ud83d\ude01.. #metooindia list &amp;amp; #MeToo  saga was only for fame  &amp;amp; settle some score...#FeminismIsCancer #feminist @ShefVaidya @UnSubtleDesi @AartiTikoo @smritiirani</t>
         </is>
       </c>
     </row>
